--- a/Agg/results/study/comb/comb_condens_50-Medium_2024-07-25_11.xlsx
+++ b/Agg/results/study/comb/comb_condens_50-Medium_2024-07-25_11.xlsx
@@ -1,15 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Meine Ablage\Doktor\Dissertation\Paper 1\Code\col\columngeneration\Agg\results\study\comb\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD580A7D-1E4B-40D7-8650-979093E92F0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-38510" yWindow="2330" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -52,8 +71,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -116,13 +135,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -160,7 +187,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -194,6 +221,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -228,9 +256,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -403,14 +432,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5:J13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -445,7 +476,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>50</v>
       </c>
@@ -456,13 +487,13 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>6.96</v>
+        <v>6.94</v>
       </c>
       <c r="E2">
         <v>6.84</v>
       </c>
       <c r="F2">
-        <v>6.96</v>
+        <v>6.94</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -471,7 +502,7 @@
         <v>6.94</v>
       </c>
       <c r="I2">
-        <v>7.07975</v>
+        <v>6.8267300000000004</v>
       </c>
       <c r="J2">
         <v>6.94</v>
@@ -480,7 +511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>50</v>
       </c>
@@ -491,13 +522,13 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>6.98</v>
+        <v>6.94</v>
       </c>
       <c r="E3">
         <v>6.86</v>
       </c>
       <c r="F3">
-        <v>6.98</v>
+        <v>6.94</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -506,7 +537,7 @@
         <v>6.94</v>
       </c>
       <c r="I3">
-        <v>7.07975</v>
+        <v>6.8267300000000004</v>
       </c>
       <c r="J3">
         <v>6.94</v>
@@ -515,7 +546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>50</v>
       </c>
@@ -541,7 +572,7 @@
         <v>6.94</v>
       </c>
       <c r="I4">
-        <v>7.07975</v>
+        <v>6.8267300000000004</v>
       </c>
       <c r="J4">
         <v>6.94</v>
@@ -550,7 +581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>50</v>
       </c>
@@ -561,13 +592,13 @@
         <v>6</v>
       </c>
       <c r="D5">
-        <v>6.92</v>
+        <v>6.94</v>
       </c>
       <c r="E5">
         <v>7.1</v>
       </c>
       <c r="F5">
-        <v>6.92</v>
+        <v>6.94</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -576,7 +607,7 @@
         <v>6.94</v>
       </c>
       <c r="I5">
-        <v>7.07975</v>
+        <v>6.8267300000000004</v>
       </c>
       <c r="J5">
         <v>6.94</v>
@@ -585,7 +616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>50</v>
       </c>
@@ -611,7 +642,7 @@
         <v>6.94</v>
       </c>
       <c r="I6">
-        <v>7.07975</v>
+        <v>6.8267300000000004</v>
       </c>
       <c r="J6">
         <v>6.94</v>
@@ -620,7 +651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>50</v>
       </c>
@@ -631,7 +662,7 @@
         <v>3</v>
       </c>
       <c r="D7">
-        <v>7.0068</v>
+        <v>7.0068000000000001</v>
       </c>
       <c r="E7">
         <v>3.66</v>
@@ -640,22 +671,22 @@
         <v>6.9</v>
       </c>
       <c r="G7">
-        <v>0.1068</v>
+        <v>0.10680000000000001</v>
       </c>
       <c r="H7">
-        <v>7.48167</v>
+        <v>7.4616700000000007</v>
       </c>
       <c r="I7">
-        <v>6.82673</v>
+        <v>6.8267300000000004</v>
       </c>
       <c r="J7">
-        <v>6.96</v>
+        <v>6.94</v>
       </c>
       <c r="K7">
-        <v>0.52167</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+        <v>0.50167000000000039</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>50</v>
       </c>
@@ -666,7 +697,7 @@
         <v>4</v>
       </c>
       <c r="D8">
-        <v>7.0596</v>
+        <v>7.0595999999999997</v>
       </c>
       <c r="E8">
         <v>3.28</v>
@@ -675,22 +706,22 @@
         <v>7</v>
       </c>
       <c r="G8">
-        <v>0.0596</v>
+        <v>5.96E-2</v>
       </c>
       <c r="H8">
-        <v>7.76502</v>
+        <v>7.7450200000000002</v>
       </c>
       <c r="I8">
-        <v>6.82673</v>
+        <v>6.8267300000000004</v>
       </c>
       <c r="J8">
-        <v>6.96</v>
+        <v>6.94</v>
       </c>
       <c r="K8">
-        <v>0.80502</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+        <v>0.78502000000000038</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>50</v>
       </c>
@@ -701,7 +732,7 @@
         <v>5</v>
       </c>
       <c r="D9">
-        <v>7.0392</v>
+        <v>7.0392000000000001</v>
       </c>
       <c r="E9">
         <v>3.12</v>
@@ -710,22 +741,22 @@
         <v>6.94</v>
       </c>
       <c r="G9">
-        <v>0.0992</v>
+        <v>9.9199999999999997E-2</v>
       </c>
       <c r="H9">
-        <v>7.91982</v>
+        <v>7.8998200000000001</v>
       </c>
       <c r="I9">
-        <v>6.82673</v>
+        <v>6.8267300000000004</v>
       </c>
       <c r="J9">
-        <v>6.96</v>
+        <v>6.94</v>
       </c>
       <c r="K9">
-        <v>0.95982</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
+        <v>0.93982000000000043</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>50</v>
       </c>
@@ -736,7 +767,7 @@
         <v>6</v>
       </c>
       <c r="D10">
-        <v>7.0628</v>
+        <v>7.0628000000000002</v>
       </c>
       <c r="E10">
         <v>2.98</v>
@@ -745,22 +776,22 @@
         <v>6.94</v>
       </c>
       <c r="G10">
-        <v>0.1228</v>
+        <v>0.12280000000000001</v>
       </c>
       <c r="H10">
-        <v>8.043049999999999</v>
+        <v>8.0230499999999996</v>
       </c>
       <c r="I10">
-        <v>6.82673</v>
+        <v>6.8267300000000004</v>
       </c>
       <c r="J10">
-        <v>6.96</v>
+        <v>6.94</v>
       </c>
       <c r="K10">
-        <v>1.08305</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
+        <v>1.0630500000000005</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>50</v>
       </c>
@@ -771,7 +802,7 @@
         <v>7</v>
       </c>
       <c r="D11">
-        <v>7.1056</v>
+        <v>7.1055999999999999</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -783,19 +814,19 @@
         <v>0.1656</v>
       </c>
       <c r="H11">
-        <v>8.103389999999999</v>
+        <v>8.0833899999999996</v>
       </c>
       <c r="I11">
-        <v>6.82673</v>
+        <v>6.8267300000000004</v>
       </c>
       <c r="J11">
-        <v>6.96</v>
+        <v>6.94</v>
       </c>
       <c r="K11">
-        <v>1.14339</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
+        <v>1.1233900000000003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>50</v>
       </c>
@@ -806,7 +837,7 @@
         <v>3</v>
       </c>
       <c r="D12">
-        <v>7.0392</v>
+        <v>7.0392000000000001</v>
       </c>
       <c r="E12">
         <v>3.62</v>
@@ -815,22 +846,22 @@
         <v>6.98</v>
       </c>
       <c r="G12">
-        <v>0.0592</v>
+        <v>5.9200000000000003E-2</v>
       </c>
       <c r="H12">
-        <v>7.73627</v>
+        <v>7.7362700000000002</v>
       </c>
       <c r="I12">
-        <v>6.29941</v>
+        <v>6.8267300000000004</v>
       </c>
       <c r="J12">
         <v>6.94</v>
       </c>
       <c r="K12">
-        <v>0.79627</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
+        <v>0.79627000000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>50</v>
       </c>
@@ -841,7 +872,7 @@
         <v>4</v>
       </c>
       <c r="D13">
-        <v>7.1064</v>
+        <v>7.1063999999999998</v>
       </c>
       <c r="E13">
         <v>3.16</v>
@@ -850,13 +881,13 @@
         <v>7</v>
       </c>
       <c r="G13">
-        <v>0.1064</v>
+        <v>0.10639999999999999</v>
       </c>
       <c r="H13">
-        <v>8.024319999999999</v>
+        <v>8.0243199999999995</v>
       </c>
       <c r="I13">
-        <v>6.29941</v>
+        <v>6.8267300000000004</v>
       </c>
       <c r="J13">
         <v>6.94</v>
@@ -865,7 +896,7 @@
         <v>1.08432</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>50</v>
       </c>
@@ -876,7 +907,7 @@
         <v>5</v>
       </c>
       <c r="D14">
-        <v>7.1656</v>
+        <v>7.1656000000000004</v>
       </c>
       <c r="E14">
         <v>3.24</v>
@@ -888,19 +919,19 @@
         <v>0.1656</v>
       </c>
       <c r="H14">
-        <v>8.26397</v>
+        <v>8.2639700000000005</v>
       </c>
       <c r="I14">
-        <v>6.29941</v>
+        <v>6.8267300000000004</v>
       </c>
       <c r="J14">
         <v>6.94</v>
       </c>
       <c r="K14">
-        <v>1.32397</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
+        <v>1.3239700000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>50</v>
       </c>
@@ -911,7 +942,7 @@
         <v>6</v>
       </c>
       <c r="D15">
-        <v>7.224</v>
+        <v>7.2240000000000002</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -920,13 +951,13 @@
         <v>7.02</v>
       </c>
       <c r="G15">
-        <v>0.204</v>
+        <v>0.20399999999999999</v>
       </c>
       <c r="H15">
-        <v>8.52548</v>
+        <v>8.5254799999999999</v>
       </c>
       <c r="I15">
-        <v>6.29941</v>
+        <v>6.8267300000000004</v>
       </c>
       <c r="J15">
         <v>6.94</v>
@@ -935,7 +966,7 @@
         <v>1.58548</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>50</v>
       </c>
@@ -946,7 +977,7 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>7.3016</v>
+        <v>7.3015999999999996</v>
       </c>
       <c r="E16">
         <v>2.86</v>
@@ -958,10 +989,10 @@
         <v>0.2616</v>
       </c>
       <c r="H16">
-        <v>8.77779</v>
+        <v>8.7777899999999995</v>
       </c>
       <c r="I16">
-        <v>6.29941</v>
+        <v>6.8267300000000004</v>
       </c>
       <c r="J16">
         <v>6.94</v>
@@ -970,7 +1001,7 @@
         <v>1.83779</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>50</v>
       </c>
@@ -981,7 +1012,7 @@
         <v>3</v>
       </c>
       <c r="D17">
-        <v>7.0924</v>
+        <v>7.0923999999999996</v>
       </c>
       <c r="E17">
         <v>3.62</v>
@@ -990,22 +1021,22 @@
         <v>7</v>
       </c>
       <c r="G17">
-        <v>0.0924</v>
+        <v>9.2399999999999996E-2</v>
       </c>
       <c r="H17">
-        <v>8.387269999999999</v>
+        <v>8.3872699999999991</v>
       </c>
       <c r="I17">
-        <v>6.71683</v>
+        <v>6.8267300000000004</v>
       </c>
       <c r="J17">
         <v>6.94</v>
       </c>
       <c r="K17">
-        <v>1.44727</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
+        <v>1.4472700000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>50</v>
       </c>
@@ -1016,7 +1047,7 @@
         <v>4</v>
       </c>
       <c r="D18">
-        <v>7.1744</v>
+        <v>7.1744000000000003</v>
       </c>
       <c r="E18">
         <v>3.28</v>
@@ -1025,22 +1056,22 @@
         <v>7.04</v>
       </c>
       <c r="G18">
-        <v>0.1344</v>
+        <v>0.13439999999999999</v>
       </c>
       <c r="H18">
-        <v>9.20908</v>
+        <v>9.2090800000000002</v>
       </c>
       <c r="I18">
-        <v>6.71683</v>
+        <v>6.8267300000000004</v>
       </c>
       <c r="J18">
         <v>6.94</v>
       </c>
       <c r="K18">
-        <v>2.26908</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
+        <v>2.2690800000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>50</v>
       </c>
@@ -1051,7 +1082,7 @@
         <v>5</v>
       </c>
       <c r="D19">
-        <v>7.2488</v>
+        <v>7.2488000000000001</v>
       </c>
       <c r="E19">
         <v>3.08</v>
@@ -1060,22 +1091,22 @@
         <v>7</v>
       </c>
       <c r="G19">
-        <v>0.2488</v>
+        <v>0.24879999999999999</v>
       </c>
       <c r="H19">
-        <v>9.236800000000001</v>
+        <v>9.2368000000000006</v>
       </c>
       <c r="I19">
-        <v>6.16376</v>
+        <v>6.8267300000000004</v>
       </c>
       <c r="J19">
         <v>6.94</v>
       </c>
       <c r="K19">
-        <v>2.2968</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
+        <v>2.2968000000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>50</v>
       </c>
@@ -1086,7 +1117,7 @@
         <v>6</v>
       </c>
       <c r="D20">
-        <v>7.3112</v>
+        <v>7.3112000000000004</v>
       </c>
       <c r="E20">
         <v>2.76</v>
@@ -1098,19 +1129,19 @@
         <v>0.2112</v>
       </c>
       <c r="H20">
-        <v>9.975849999999999</v>
+        <v>9.9758499999999994</v>
       </c>
       <c r="I20">
-        <v>6.71683</v>
+        <v>6.8267300000000004</v>
       </c>
       <c r="J20">
         <v>6.94</v>
       </c>
       <c r="K20">
-        <v>3.03585</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
+        <v>3.0358499999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>50</v>
       </c>
@@ -1121,7 +1152,7 @@
         <v>7</v>
       </c>
       <c r="D21">
-        <v>7.4224</v>
+        <v>7.4223999999999997</v>
       </c>
       <c r="E21">
         <v>2.72</v>
@@ -1130,22 +1161,22 @@
         <v>7.1</v>
       </c>
       <c r="G21">
-        <v>0.3224</v>
+        <v>0.32240000000000002</v>
       </c>
       <c r="H21">
         <v>10.11778</v>
       </c>
       <c r="I21">
-        <v>6.71683</v>
+        <v>6.8267300000000004</v>
       </c>
       <c r="J21">
         <v>6.94</v>
       </c>
       <c r="K21">
-        <v>3.17778</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
+        <v>3.1777799999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>50</v>
       </c>
@@ -1156,7 +1187,7 @@
         <v>3</v>
       </c>
       <c r="D22">
-        <v>7.124</v>
+        <v>7.1239999999999997</v>
       </c>
       <c r="E22">
         <v>3.74</v>
@@ -1168,19 +1199,19 @@
         <v>0.104</v>
       </c>
       <c r="H22">
-        <v>8.37663</v>
+        <v>8.3766300000000005</v>
       </c>
       <c r="I22">
-        <v>5.86139</v>
+        <v>6.8267300000000004</v>
       </c>
       <c r="J22">
         <v>6.94</v>
       </c>
       <c r="K22">
-        <v>1.43663</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
+        <v>1.4366300000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>50</v>
       </c>
@@ -1191,7 +1222,7 @@
         <v>4</v>
       </c>
       <c r="D23">
-        <v>7.1736</v>
+        <v>7.1736000000000004</v>
       </c>
       <c r="E23">
         <v>3.14</v>
@@ -1200,22 +1231,22 @@
         <v>7.06</v>
       </c>
       <c r="G23">
-        <v>0.1136</v>
+        <v>0.11360000000000001</v>
       </c>
       <c r="H23">
-        <v>9.110379999999999</v>
+        <v>9.1103799999999993</v>
       </c>
       <c r="I23">
-        <v>5.86139</v>
+        <v>6.8267300000000004</v>
       </c>
       <c r="J23">
         <v>6.94</v>
       </c>
       <c r="K23">
-        <v>2.17038</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
+        <v>2.1703800000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>50</v>
       </c>
@@ -1226,7 +1257,7 @@
         <v>5</v>
       </c>
       <c r="D24">
-        <v>7.3504</v>
+        <v>7.3503999999999996</v>
       </c>
       <c r="E24">
         <v>2.7</v>
@@ -1235,22 +1266,22 @@
         <v>7.16</v>
       </c>
       <c r="G24">
-        <v>0.1904</v>
+        <v>0.19040000000000001</v>
       </c>
       <c r="H24">
-        <v>9.666829999999999</v>
+        <v>9.6668299999999991</v>
       </c>
       <c r="I24">
-        <v>5.86139</v>
+        <v>6.8267300000000004</v>
       </c>
       <c r="J24">
         <v>6.94</v>
       </c>
       <c r="K24">
-        <v>2.72683</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
+        <v>2.7268300000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>50</v>
       </c>
@@ -1261,7 +1292,7 @@
         <v>6</v>
       </c>
       <c r="D25">
-        <v>7.34208</v>
+        <v>7.3420800000000002</v>
       </c>
       <c r="E25">
         <v>2.54</v>
@@ -1273,19 +1304,19 @@
         <v>0.22208</v>
       </c>
       <c r="H25">
-        <v>10.27597</v>
+        <v>10.275969999999999</v>
       </c>
       <c r="I25">
-        <v>5.86139</v>
+        <v>6.8267300000000004</v>
       </c>
       <c r="J25">
         <v>6.94</v>
       </c>
       <c r="K25">
-        <v>3.33597</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
+        <v>3.3359700000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>50</v>
       </c>
@@ -1296,7 +1327,7 @@
         <v>7</v>
       </c>
       <c r="D26">
-        <v>7.5104</v>
+        <v>7.5103999999999997</v>
       </c>
       <c r="E26">
         <v>2.54</v>
@@ -1305,22 +1336,22 @@
         <v>7.28</v>
       </c>
       <c r="G26">
-        <v>0.2304</v>
+        <v>0.23039999999999999</v>
       </c>
       <c r="H26">
-        <v>10.57411</v>
+        <v>10.574109999999999</v>
       </c>
       <c r="I26">
-        <v>5.86139</v>
+        <v>6.8267300000000004</v>
       </c>
       <c r="J26">
         <v>6.94</v>
       </c>
       <c r="K26">
-        <v>3.63411</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11">
+        <v>3.6341100000000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>50</v>
       </c>
@@ -1331,7 +1362,7 @@
         <v>3</v>
       </c>
       <c r="D27">
-        <v>7.1247</v>
+        <v>7.1246999999999998</v>
       </c>
       <c r="E27">
         <v>3.64</v>
@@ -1340,13 +1371,13 @@
         <v>7</v>
       </c>
       <c r="G27">
-        <v>0.1247</v>
+        <v>0.12470000000000001</v>
       </c>
       <c r="H27">
-        <v>8.744910000000001</v>
+        <v>8.7449100000000008</v>
       </c>
       <c r="I27">
-        <v>6.24614</v>
+        <v>6.8267300000000004</v>
       </c>
       <c r="J27">
         <v>6.94</v>
@@ -1355,7 +1386,7 @@
         <v>1.80491</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>50</v>
       </c>
@@ -1366,7 +1397,7 @@
         <v>4</v>
       </c>
       <c r="D28">
-        <v>7.20321</v>
+        <v>7.2032100000000003</v>
       </c>
       <c r="E28">
         <v>3.02</v>
@@ -1378,19 +1409,19 @@
         <v>0.14321</v>
       </c>
       <c r="H28">
-        <v>9.483499999999999</v>
+        <v>9.4834999999999994</v>
       </c>
       <c r="I28">
-        <v>6.24614</v>
+        <v>6.8267300000000004</v>
       </c>
       <c r="J28">
         <v>6.94</v>
       </c>
       <c r="K28">
-        <v>2.5435</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11">
+        <v>2.5434999999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>50</v>
       </c>
@@ -1401,7 +1432,7 @@
         <v>5</v>
       </c>
       <c r="D29">
-        <v>7.362</v>
+        <v>7.3620000000000001</v>
       </c>
       <c r="E29">
         <v>2.64</v>
@@ -1416,16 +1447,16 @@
         <v>10.34356</v>
       </c>
       <c r="I29">
-        <v>6.24614</v>
+        <v>6.8267300000000004</v>
       </c>
       <c r="J29">
         <v>6.94</v>
       </c>
       <c r="K29">
-        <v>3.40356</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11">
+        <v>3.4035600000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>50</v>
       </c>
@@ -1436,7 +1467,7 @@
         <v>6</v>
       </c>
       <c r="D30">
-        <v>7.428</v>
+        <v>7.4279999999999999</v>
       </c>
       <c r="E30">
         <v>2.42</v>
@@ -1445,22 +1476,22 @@
         <v>7.28</v>
       </c>
       <c r="G30">
-        <v>0.148</v>
+        <v>0.14799999999999999</v>
       </c>
       <c r="H30">
-        <v>11.15758</v>
+        <v>11.157579999999999</v>
       </c>
       <c r="I30">
-        <v>6.24614</v>
+        <v>6.8267300000000004</v>
       </c>
       <c r="J30">
         <v>6.94</v>
       </c>
       <c r="K30">
-        <v>4.21758</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11">
+        <v>4.2175799999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>50</v>
       </c>
@@ -1486,13 +1517,2113 @@
         <v>11.47945</v>
       </c>
       <c r="I31">
-        <v>6.24614</v>
+        <v>6.8267300000000004</v>
       </c>
       <c r="J31">
         <v>6.94</v>
       </c>
       <c r="K31">
-        <v>4.53945</v>
+        <v>4.5394500000000004</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>100</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>3</v>
+      </c>
+      <c r="D32">
+        <v>8.9600000000000009</v>
+      </c>
+      <c r="E32">
+        <v>7.5</v>
+      </c>
+      <c r="F32">
+        <v>8.9600000000000009</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>8.9600000000000009</v>
+      </c>
+      <c r="I32">
+        <v>7.06752</v>
+      </c>
+      <c r="J32">
+        <v>8.9600000000000009</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>100</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>4</v>
+      </c>
+      <c r="D33">
+        <v>8.9600000000000009</v>
+      </c>
+      <c r="E33">
+        <v>7.24</v>
+      </c>
+      <c r="F33">
+        <v>8.9600000000000009</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>8.9600000000000009</v>
+      </c>
+      <c r="I33">
+        <v>7.06752</v>
+      </c>
+      <c r="J33">
+        <v>8.9600000000000009</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>100</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>5</v>
+      </c>
+      <c r="D34">
+        <v>8.9600000000000009</v>
+      </c>
+      <c r="E34">
+        <v>7.64</v>
+      </c>
+      <c r="F34">
+        <v>8.9600000000000009</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>8.9600000000000009</v>
+      </c>
+      <c r="I34">
+        <v>7.06752</v>
+      </c>
+      <c r="J34">
+        <v>8.9600000000000009</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>100</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>6</v>
+      </c>
+      <c r="D35">
+        <v>8.9600000000000009</v>
+      </c>
+      <c r="E35">
+        <v>7.43</v>
+      </c>
+      <c r="F35">
+        <v>8.9600000000000009</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>8.9600000000000009</v>
+      </c>
+      <c r="I35">
+        <v>7.06752</v>
+      </c>
+      <c r="J35">
+        <v>8.9600000000000009</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>100</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>7</v>
+      </c>
+      <c r="D36">
+        <v>8.9600000000000009</v>
+      </c>
+      <c r="E36">
+        <v>7.04</v>
+      </c>
+      <c r="F36">
+        <v>8.9600000000000009</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>8.9600000000000009</v>
+      </c>
+      <c r="I36">
+        <v>7.06752</v>
+      </c>
+      <c r="J36">
+        <v>8.9600000000000009</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>100</v>
+      </c>
+      <c r="B37">
+        <v>0.02</v>
+      </c>
+      <c r="C37">
+        <v>3</v>
+      </c>
+      <c r="D37">
+        <v>9.0167999999999999</v>
+      </c>
+      <c r="E37">
+        <v>4.12</v>
+      </c>
+      <c r="F37">
+        <v>8.98</v>
+      </c>
+      <c r="G37">
+        <v>3.6799999999999999E-2</v>
+      </c>
+      <c r="H37">
+        <v>9.4505200000000009</v>
+      </c>
+      <c r="I37">
+        <v>7.06752</v>
+      </c>
+      <c r="J37">
+        <v>8.9600000000000009</v>
+      </c>
+      <c r="K37">
+        <v>0.48052000000000022</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>100</v>
+      </c>
+      <c r="B38">
+        <v>0.02</v>
+      </c>
+      <c r="C38">
+        <v>4</v>
+      </c>
+      <c r="D38">
+        <v>9.1123999999999992</v>
+      </c>
+      <c r="E38">
+        <v>3.9</v>
+      </c>
+      <c r="F38">
+        <v>8.91</v>
+      </c>
+      <c r="G38">
+        <v>0.2024</v>
+      </c>
+      <c r="H38">
+        <v>9.6978200000000001</v>
+      </c>
+      <c r="I38">
+        <v>7.06752</v>
+      </c>
+      <c r="J38">
+        <v>8.9600000000000009</v>
+      </c>
+      <c r="K38">
+        <v>0.72782000000000024</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>100</v>
+      </c>
+      <c r="B39">
+        <v>0.02</v>
+      </c>
+      <c r="C39">
+        <v>5</v>
+      </c>
+      <c r="D39">
+        <v>9.0755999999999997</v>
+      </c>
+      <c r="E39">
+        <v>3.63</v>
+      </c>
+      <c r="F39">
+        <v>8.92</v>
+      </c>
+      <c r="G39">
+        <v>0.15559999999999999</v>
+      </c>
+      <c r="H39">
+        <v>9.8274900000000009</v>
+      </c>
+      <c r="I39">
+        <v>7.06752</v>
+      </c>
+      <c r="J39">
+        <v>8.9600000000000009</v>
+      </c>
+      <c r="K39">
+        <v>0.8574900000000002</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>100</v>
+      </c>
+      <c r="B40">
+        <v>0.02</v>
+      </c>
+      <c r="C40">
+        <v>6</v>
+      </c>
+      <c r="D40">
+        <v>9.1212</v>
+      </c>
+      <c r="E40">
+        <v>3.63</v>
+      </c>
+      <c r="F40">
+        <v>9</v>
+      </c>
+      <c r="G40">
+        <v>0.1212</v>
+      </c>
+      <c r="H40">
+        <v>9.9119799999999998</v>
+      </c>
+      <c r="I40">
+        <v>7.06752</v>
+      </c>
+      <c r="J40">
+        <v>8.9600000000000009</v>
+      </c>
+      <c r="K40">
+        <v>0.94198000000000026</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>100</v>
+      </c>
+      <c r="B41">
+        <v>0.02</v>
+      </c>
+      <c r="C41">
+        <v>7</v>
+      </c>
+      <c r="D41">
+        <v>9.1785999999999994</v>
+      </c>
+      <c r="E41">
+        <v>3.64</v>
+      </c>
+      <c r="F41">
+        <v>9.0500000000000007</v>
+      </c>
+      <c r="G41">
+        <v>0.12859999999999999</v>
+      </c>
+      <c r="H41">
+        <v>9.9640500000000003</v>
+      </c>
+      <c r="I41">
+        <v>7.06752</v>
+      </c>
+      <c r="J41">
+        <v>8.9600000000000009</v>
+      </c>
+      <c r="K41">
+        <v>0.99405000000000032</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>100</v>
+      </c>
+      <c r="B42">
+        <v>0.04</v>
+      </c>
+      <c r="C42">
+        <v>3</v>
+      </c>
+      <c r="D42">
+        <v>9.0519999999999996</v>
+      </c>
+      <c r="E42">
+        <v>4.25</v>
+      </c>
+      <c r="F42">
+        <v>8.98</v>
+      </c>
+      <c r="G42">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="H42">
+        <v>10.15446</v>
+      </c>
+      <c r="I42">
+        <v>7.06752</v>
+      </c>
+      <c r="J42">
+        <v>8.9600000000000009</v>
+      </c>
+      <c r="K42">
+        <v>1.1944600000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>100</v>
+      </c>
+      <c r="B43">
+        <v>0.04</v>
+      </c>
+      <c r="C43">
+        <v>4</v>
+      </c>
+      <c r="D43">
+        <v>9.1539999999999999</v>
+      </c>
+      <c r="E43">
+        <v>3.87</v>
+      </c>
+      <c r="F43">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="G43">
+        <v>0.45400000000000001</v>
+      </c>
+      <c r="H43">
+        <v>10.84929</v>
+      </c>
+      <c r="I43">
+        <v>7.06752</v>
+      </c>
+      <c r="J43">
+        <v>8.9600000000000009</v>
+      </c>
+      <c r="K43">
+        <v>1.8892899999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>100</v>
+      </c>
+      <c r="B44">
+        <v>0.04</v>
+      </c>
+      <c r="C44">
+        <v>5</v>
+      </c>
+      <c r="D44">
+        <v>9.1952200000000008</v>
+      </c>
+      <c r="E44">
+        <v>3.63</v>
+      </c>
+      <c r="F44">
+        <v>9.01</v>
+      </c>
+      <c r="G44">
+        <v>0.18522</v>
+      </c>
+      <c r="H44">
+        <v>11.09158</v>
+      </c>
+      <c r="I44">
+        <v>7.06752</v>
+      </c>
+      <c r="J44">
+        <v>8.9600000000000009</v>
+      </c>
+      <c r="K44">
+        <v>2.13158</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>100</v>
+      </c>
+      <c r="B45">
+        <v>0.04</v>
+      </c>
+      <c r="C45">
+        <v>6</v>
+      </c>
+      <c r="D45">
+        <v>9.3079999999999998</v>
+      </c>
+      <c r="E45">
+        <v>3.52</v>
+      </c>
+      <c r="F45">
+        <v>9.09</v>
+      </c>
+      <c r="G45">
+        <v>0.218</v>
+      </c>
+      <c r="H45">
+        <v>11.19516</v>
+      </c>
+      <c r="I45">
+        <v>7.06752</v>
+      </c>
+      <c r="J45">
+        <v>8.9600000000000009</v>
+      </c>
+      <c r="K45">
+        <v>2.23516</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>100</v>
+      </c>
+      <c r="B46">
+        <v>0.04</v>
+      </c>
+      <c r="C46">
+        <v>7</v>
+      </c>
+      <c r="D46">
+        <v>9.3675999999999995</v>
+      </c>
+      <c r="E46">
+        <v>3.62</v>
+      </c>
+      <c r="F46">
+        <v>9.1</v>
+      </c>
+      <c r="G46">
+        <v>0.2676</v>
+      </c>
+      <c r="H46">
+        <v>11.30241</v>
+      </c>
+      <c r="I46">
+        <v>7.06752</v>
+      </c>
+      <c r="J46">
+        <v>8.9600000000000009</v>
+      </c>
+      <c r="K46">
+        <v>2.3424100000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>100</v>
+      </c>
+      <c r="B47">
+        <v>0.06</v>
+      </c>
+      <c r="C47">
+        <v>3</v>
+      </c>
+      <c r="D47">
+        <v>9.1335999999999995</v>
+      </c>
+      <c r="E47">
+        <v>4.08</v>
+      </c>
+      <c r="F47">
+        <v>9.0399999999999991</v>
+      </c>
+      <c r="G47">
+        <v>9.3600000000000003E-2</v>
+      </c>
+      <c r="H47">
+        <v>10.346439999999999</v>
+      </c>
+      <c r="I47">
+        <v>7.06752</v>
+      </c>
+      <c r="J47">
+        <v>8.9600000000000009</v>
+      </c>
+      <c r="K47">
+        <v>1.3864399999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>100</v>
+      </c>
+      <c r="B48">
+        <v>0.06</v>
+      </c>
+      <c r="C48">
+        <v>4</v>
+      </c>
+      <c r="D48">
+        <v>9.2748000000000008</v>
+      </c>
+      <c r="E48">
+        <v>3.85</v>
+      </c>
+      <c r="F48">
+        <v>9.09</v>
+      </c>
+      <c r="G48">
+        <v>0.18479999999999999</v>
+      </c>
+      <c r="H48">
+        <v>11.18322</v>
+      </c>
+      <c r="I48">
+        <v>7.06752</v>
+      </c>
+      <c r="J48">
+        <v>8.9600000000000009</v>
+      </c>
+      <c r="K48">
+        <v>2.22322</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>100</v>
+      </c>
+      <c r="B49">
+        <v>0.06</v>
+      </c>
+      <c r="C49">
+        <v>5</v>
+      </c>
+      <c r="D49">
+        <v>9.3406000000000002</v>
+      </c>
+      <c r="E49">
+        <v>3.47</v>
+      </c>
+      <c r="F49">
+        <v>9.1199999999999992</v>
+      </c>
+      <c r="G49">
+        <v>0.22059999999999999</v>
+      </c>
+      <c r="H49">
+        <v>11.373810000000001</v>
+      </c>
+      <c r="I49">
+        <v>7.06752</v>
+      </c>
+      <c r="J49">
+        <v>8.9600000000000009</v>
+      </c>
+      <c r="K49">
+        <v>2.4138099999999998</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>100</v>
+      </c>
+      <c r="B50">
+        <v>0.06</v>
+      </c>
+      <c r="C50">
+        <v>6</v>
+      </c>
+      <c r="D50">
+        <v>9.4116</v>
+      </c>
+      <c r="E50">
+        <v>3.46</v>
+      </c>
+      <c r="F50">
+        <v>9.1300000000000008</v>
+      </c>
+      <c r="G50">
+        <v>0.28160000000000002</v>
+      </c>
+      <c r="H50">
+        <v>11.567159999999999</v>
+      </c>
+      <c r="I50">
+        <v>7.06752</v>
+      </c>
+      <c r="J50">
+        <v>8.9600000000000009</v>
+      </c>
+      <c r="K50">
+        <v>2.6071599999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>100</v>
+      </c>
+      <c r="B51">
+        <v>0.06</v>
+      </c>
+      <c r="C51">
+        <v>7</v>
+      </c>
+      <c r="D51">
+        <v>9.4510000000000005</v>
+      </c>
+      <c r="E51">
+        <v>3.38</v>
+      </c>
+      <c r="F51">
+        <v>9.15</v>
+      </c>
+      <c r="G51">
+        <v>0.30099999999999999</v>
+      </c>
+      <c r="H51">
+        <v>11.70396</v>
+      </c>
+      <c r="I51">
+        <v>7.06752</v>
+      </c>
+      <c r="J51">
+        <v>8.9600000000000009</v>
+      </c>
+      <c r="K51">
+        <v>2.74396</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>100</v>
+      </c>
+      <c r="B52">
+        <v>0.08</v>
+      </c>
+      <c r="C52">
+        <v>3</v>
+      </c>
+      <c r="D52">
+        <v>9.1384000000000007</v>
+      </c>
+      <c r="E52">
+        <v>4.2</v>
+      </c>
+      <c r="F52">
+        <v>9</v>
+      </c>
+      <c r="G52">
+        <v>0.1384</v>
+      </c>
+      <c r="H52">
+        <v>10.41633</v>
+      </c>
+      <c r="I52">
+        <v>7.06752</v>
+      </c>
+      <c r="J52">
+        <v>8.9600000000000009</v>
+      </c>
+      <c r="K52">
+        <v>1.4563299999999999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>100</v>
+      </c>
+      <c r="B53">
+        <v>0.08</v>
+      </c>
+      <c r="C53">
+        <v>4</v>
+      </c>
+      <c r="D53">
+        <v>9.2775999999999996</v>
+      </c>
+      <c r="E53">
+        <v>3.8</v>
+      </c>
+      <c r="F53">
+        <v>9.06</v>
+      </c>
+      <c r="G53">
+        <v>0.21759999999999999</v>
+      </c>
+      <c r="H53">
+        <v>11.375220000000001</v>
+      </c>
+      <c r="I53">
+        <v>7.06752</v>
+      </c>
+      <c r="J53">
+        <v>8.9600000000000009</v>
+      </c>
+      <c r="K53">
+        <v>2.4152200000000001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>100</v>
+      </c>
+      <c r="B54">
+        <v>0.08</v>
+      </c>
+      <c r="C54">
+        <v>5</v>
+      </c>
+      <c r="D54">
+        <v>9.3803999999999998</v>
+      </c>
+      <c r="E54">
+        <v>3.34</v>
+      </c>
+      <c r="F54">
+        <v>9.1300000000000008</v>
+      </c>
+      <c r="G54">
+        <v>0.25040000000000001</v>
+      </c>
+      <c r="H54">
+        <v>11.98415</v>
+      </c>
+      <c r="I54">
+        <v>7.06752</v>
+      </c>
+      <c r="J54">
+        <v>8.9600000000000009</v>
+      </c>
+      <c r="K54">
+        <v>3.0241500000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>100</v>
+      </c>
+      <c r="B55">
+        <v>0.08</v>
+      </c>
+      <c r="C55">
+        <v>6</v>
+      </c>
+      <c r="D55">
+        <v>9.5248000000000008</v>
+      </c>
+      <c r="E55">
+        <v>3.37</v>
+      </c>
+      <c r="F55">
+        <v>9.19</v>
+      </c>
+      <c r="G55">
+        <v>0.33479999999999999</v>
+      </c>
+      <c r="H55">
+        <v>12.30209</v>
+      </c>
+      <c r="I55">
+        <v>7.06752</v>
+      </c>
+      <c r="J55">
+        <v>8.9600000000000009</v>
+      </c>
+      <c r="K55">
+        <v>3.3420899999999998</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>100</v>
+      </c>
+      <c r="B56">
+        <v>0.08</v>
+      </c>
+      <c r="C56">
+        <v>7</v>
+      </c>
+      <c r="D56">
+        <v>9.6107999999999993</v>
+      </c>
+      <c r="E56">
+        <v>3.2</v>
+      </c>
+      <c r="F56">
+        <v>9.27</v>
+      </c>
+      <c r="G56">
+        <v>0.34079999999999999</v>
+      </c>
+      <c r="H56">
+        <v>12.45834</v>
+      </c>
+      <c r="I56">
+        <v>7.06752</v>
+      </c>
+      <c r="J56">
+        <v>8.9600000000000009</v>
+      </c>
+      <c r="K56">
+        <v>3.4983399999999998</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>100</v>
+      </c>
+      <c r="B57">
+        <v>0.1</v>
+      </c>
+      <c r="C57">
+        <v>3</v>
+      </c>
+      <c r="D57">
+        <v>9.2059999999999995</v>
+      </c>
+      <c r="E57">
+        <v>4.13</v>
+      </c>
+      <c r="F57">
+        <v>9.07</v>
+      </c>
+      <c r="G57">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="H57">
+        <v>10.248150000000001</v>
+      </c>
+      <c r="I57">
+        <v>7.06752</v>
+      </c>
+      <c r="J57">
+        <v>8.9600000000000009</v>
+      </c>
+      <c r="K57">
+        <v>1.2881499999999999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>100</v>
+      </c>
+      <c r="B58">
+        <v>0.1</v>
+      </c>
+      <c r="C58">
+        <v>4</v>
+      </c>
+      <c r="D58">
+        <v>9.3390000000000004</v>
+      </c>
+      <c r="E58">
+        <v>3.62</v>
+      </c>
+      <c r="F58">
+        <v>9.1</v>
+      </c>
+      <c r="G58">
+        <v>0.23899999999999999</v>
+      </c>
+      <c r="H58">
+        <v>11.193899999999999</v>
+      </c>
+      <c r="I58">
+        <v>7.06752</v>
+      </c>
+      <c r="J58">
+        <v>8.9600000000000009</v>
+      </c>
+      <c r="K58">
+        <v>2.2339000000000002</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>100</v>
+      </c>
+      <c r="B59">
+        <v>0.1</v>
+      </c>
+      <c r="C59">
+        <v>5</v>
+      </c>
+      <c r="D59">
+        <v>9.4550000000000001</v>
+      </c>
+      <c r="E59">
+        <v>3.2</v>
+      </c>
+      <c r="F59">
+        <v>9.2200000000000006</v>
+      </c>
+      <c r="G59">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="H59">
+        <v>11.47893</v>
+      </c>
+      <c r="I59">
+        <v>7.06752</v>
+      </c>
+      <c r="J59">
+        <v>8.9600000000000009</v>
+      </c>
+      <c r="K59">
+        <v>2.5189300000000001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>100</v>
+      </c>
+      <c r="B60">
+        <v>0.1</v>
+      </c>
+      <c r="C60">
+        <v>6</v>
+      </c>
+      <c r="D60">
+        <v>9.5660000000000007</v>
+      </c>
+      <c r="E60">
+        <v>2.91</v>
+      </c>
+      <c r="F60">
+        <v>9.27</v>
+      </c>
+      <c r="G60">
+        <v>0.29599999999999999</v>
+      </c>
+      <c r="H60">
+        <v>11.755280000000001</v>
+      </c>
+      <c r="I60">
+        <v>7.06752</v>
+      </c>
+      <c r="J60">
+        <v>8.9600000000000009</v>
+      </c>
+      <c r="K60">
+        <v>2.79528</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>100</v>
+      </c>
+      <c r="B61">
+        <v>0.1</v>
+      </c>
+      <c r="C61">
+        <v>7</v>
+      </c>
+      <c r="D61">
+        <v>9.6419999999999995</v>
+      </c>
+      <c r="E61">
+        <v>3</v>
+      </c>
+      <c r="F61">
+        <v>9.2899999999999991</v>
+      </c>
+      <c r="G61">
+        <v>0.35199999999999998</v>
+      </c>
+      <c r="H61">
+        <v>12.023239999999999</v>
+      </c>
+      <c r="I61">
+        <v>7.06752</v>
+      </c>
+      <c r="J61">
+        <v>8.9600000000000009</v>
+      </c>
+      <c r="K61">
+        <v>3.06324</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>150</v>
+      </c>
+      <c r="B62">
+        <v>0</v>
+      </c>
+      <c r="C62">
+        <v>3</v>
+      </c>
+      <c r="D62">
+        <v>7.46</v>
+      </c>
+      <c r="E62">
+        <v>7.4066700000000001</v>
+      </c>
+      <c r="F62">
+        <v>7.46</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>7.46</v>
+      </c>
+      <c r="I62">
+        <v>6.9889799999999997</v>
+      </c>
+      <c r="J62">
+        <v>7.46</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>150</v>
+      </c>
+      <c r="B63">
+        <v>0</v>
+      </c>
+      <c r="C63">
+        <v>4</v>
+      </c>
+      <c r="D63">
+        <v>7.46</v>
+      </c>
+      <c r="E63">
+        <v>6.82667</v>
+      </c>
+      <c r="F63">
+        <v>7.46</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <v>7.46</v>
+      </c>
+      <c r="I63">
+        <v>6.9889799999999997</v>
+      </c>
+      <c r="J63">
+        <v>7.46</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>150</v>
+      </c>
+      <c r="B64">
+        <v>0</v>
+      </c>
+      <c r="C64">
+        <v>5</v>
+      </c>
+      <c r="D64">
+        <v>7.46</v>
+      </c>
+      <c r="E64">
+        <v>7.4466700000000001</v>
+      </c>
+      <c r="F64">
+        <v>7.46</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <v>7.46</v>
+      </c>
+      <c r="I64">
+        <v>6.9889799999999997</v>
+      </c>
+      <c r="J64">
+        <v>7.46</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>150</v>
+      </c>
+      <c r="B65">
+        <v>0</v>
+      </c>
+      <c r="C65">
+        <v>6</v>
+      </c>
+      <c r="D65">
+        <v>7.46</v>
+      </c>
+      <c r="E65">
+        <v>7.34</v>
+      </c>
+      <c r="F65">
+        <v>7.46</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <v>7.46</v>
+      </c>
+      <c r="I65">
+        <v>6.9889799999999997</v>
+      </c>
+      <c r="J65">
+        <v>7.46</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>150</v>
+      </c>
+      <c r="B66">
+        <v>0</v>
+      </c>
+      <c r="C66">
+        <v>7</v>
+      </c>
+      <c r="D66">
+        <v>7.46</v>
+      </c>
+      <c r="E66">
+        <v>7.48</v>
+      </c>
+      <c r="F66">
+        <v>7.46</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <v>7.46</v>
+      </c>
+      <c r="I66">
+        <v>6.9889799999999997</v>
+      </c>
+      <c r="J66">
+        <v>7.46</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>150</v>
+      </c>
+      <c r="B67">
+        <v>0.02</v>
+      </c>
+      <c r="C67">
+        <v>3</v>
+      </c>
+      <c r="D67">
+        <v>7.54413</v>
+      </c>
+      <c r="E67">
+        <v>4.26</v>
+      </c>
+      <c r="F67">
+        <v>7.5133299999999998</v>
+      </c>
+      <c r="G67">
+        <v>3.0800000000000001E-2</v>
+      </c>
+      <c r="H67">
+        <v>7.9308800000000002</v>
+      </c>
+      <c r="I67">
+        <v>6.9889799999999997</v>
+      </c>
+      <c r="J67">
+        <v>7.46</v>
+      </c>
+      <c r="K67">
+        <v>0.47088000000000002</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>150</v>
+      </c>
+      <c r="B68">
+        <v>0.02</v>
+      </c>
+      <c r="C68">
+        <v>4</v>
+      </c>
+      <c r="D68">
+        <v>7.5985300000000002</v>
+      </c>
+      <c r="E68">
+        <v>3.9666700000000001</v>
+      </c>
+      <c r="F68">
+        <v>7.5466699999999998</v>
+      </c>
+      <c r="G68">
+        <v>5.1869999999999999E-2</v>
+      </c>
+      <c r="H68">
+        <v>8.1485099999999999</v>
+      </c>
+      <c r="I68">
+        <v>6.9889799999999997</v>
+      </c>
+      <c r="J68">
+        <v>7.46</v>
+      </c>
+      <c r="K68">
+        <v>0.68850999999999996</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>150</v>
+      </c>
+      <c r="B69">
+        <v>0.02</v>
+      </c>
+      <c r="C69">
+        <v>5</v>
+      </c>
+      <c r="D69">
+        <v>7.6421299999999999</v>
+      </c>
+      <c r="E69">
+        <v>3.92</v>
+      </c>
+      <c r="F69">
+        <v>7.5733300000000003</v>
+      </c>
+      <c r="G69">
+        <v>6.88E-2</v>
+      </c>
+      <c r="H69">
+        <v>8.3462599999999991</v>
+      </c>
+      <c r="I69">
+        <v>6.9889799999999997</v>
+      </c>
+      <c r="J69">
+        <v>7.46</v>
+      </c>
+      <c r="K69">
+        <v>0.88626000000000005</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>150</v>
+      </c>
+      <c r="B70">
+        <v>0.02</v>
+      </c>
+      <c r="C70">
+        <v>6</v>
+      </c>
+      <c r="D70">
+        <v>7.6833299999999998</v>
+      </c>
+      <c r="E70">
+        <v>3.7466699999999999</v>
+      </c>
+      <c r="F70">
+        <v>7.5666700000000002</v>
+      </c>
+      <c r="G70">
+        <v>0.11667</v>
+      </c>
+      <c r="H70">
+        <v>8.4805799999999998</v>
+      </c>
+      <c r="I70">
+        <v>6.9889799999999997</v>
+      </c>
+      <c r="J70">
+        <v>7.46</v>
+      </c>
+      <c r="K70">
+        <v>1.02058</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>150</v>
+      </c>
+      <c r="B71">
+        <v>0.02</v>
+      </c>
+      <c r="C71">
+        <v>7</v>
+      </c>
+      <c r="D71">
+        <v>7.6901299999999999</v>
+      </c>
+      <c r="E71">
+        <v>3.6066699999999998</v>
+      </c>
+      <c r="F71">
+        <v>7.5466699999999998</v>
+      </c>
+      <c r="G71">
+        <v>0.14346999999999999</v>
+      </c>
+      <c r="H71">
+        <v>8.5732099999999996</v>
+      </c>
+      <c r="I71">
+        <v>6.9889799999999997</v>
+      </c>
+      <c r="J71">
+        <v>7.46</v>
+      </c>
+      <c r="K71">
+        <v>1.11321</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>150</v>
+      </c>
+      <c r="B72">
+        <v>0.04</v>
+      </c>
+      <c r="C72">
+        <v>3</v>
+      </c>
+      <c r="D72">
+        <v>7.5986700000000003</v>
+      </c>
+      <c r="E72">
+        <v>4.2066699999999999</v>
+      </c>
+      <c r="F72">
+        <v>7.5333300000000003</v>
+      </c>
+      <c r="G72">
+        <v>6.5329999999999999E-2</v>
+      </c>
+      <c r="H72">
+        <v>8.32911</v>
+      </c>
+      <c r="I72">
+        <v>6.9889799999999997</v>
+      </c>
+      <c r="J72">
+        <v>7.46</v>
+      </c>
+      <c r="K72">
+        <v>0.86911000000000005</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>150</v>
+      </c>
+      <c r="B73">
+        <v>0.04</v>
+      </c>
+      <c r="C73">
+        <v>4</v>
+      </c>
+      <c r="D73">
+        <v>7.6352000000000002</v>
+      </c>
+      <c r="E73">
+        <v>3.76</v>
+      </c>
+      <c r="F73">
+        <v>7.5666700000000002</v>
+      </c>
+      <c r="G73">
+        <v>6.8529999999999994E-2</v>
+      </c>
+      <c r="H73">
+        <v>8.6056500000000007</v>
+      </c>
+      <c r="I73">
+        <v>6.9889799999999997</v>
+      </c>
+      <c r="J73">
+        <v>7.46</v>
+      </c>
+      <c r="K73">
+        <v>1.1456500000000001</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>150</v>
+      </c>
+      <c r="B74">
+        <v>0.04</v>
+      </c>
+      <c r="C74">
+        <v>5</v>
+      </c>
+      <c r="D74">
+        <v>7.7125300000000001</v>
+      </c>
+      <c r="E74">
+        <v>3.5866699999999998</v>
+      </c>
+      <c r="F74">
+        <v>7.6066700000000003</v>
+      </c>
+      <c r="G74">
+        <v>0.10587000000000001</v>
+      </c>
+      <c r="H74">
+        <v>9.0071899999999996</v>
+      </c>
+      <c r="I74">
+        <v>6.9889799999999997</v>
+      </c>
+      <c r="J74">
+        <v>7.46</v>
+      </c>
+      <c r="K74">
+        <v>1.5471900000000001</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>150</v>
+      </c>
+      <c r="B75">
+        <v>0.04</v>
+      </c>
+      <c r="C75">
+        <v>6</v>
+      </c>
+      <c r="D75">
+        <v>7.7981299999999996</v>
+      </c>
+      <c r="E75">
+        <v>3.36</v>
+      </c>
+      <c r="F75">
+        <v>7.64</v>
+      </c>
+      <c r="G75">
+        <v>0.15812999999999999</v>
+      </c>
+      <c r="H75">
+        <v>9.1999300000000002</v>
+      </c>
+      <c r="I75">
+        <v>6.9889799999999997</v>
+      </c>
+      <c r="J75">
+        <v>7.46</v>
+      </c>
+      <c r="K75">
+        <v>1.73993</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>150</v>
+      </c>
+      <c r="B76">
+        <v>0.04</v>
+      </c>
+      <c r="C76">
+        <v>7</v>
+      </c>
+      <c r="D76">
+        <v>7.8575999999999997</v>
+      </c>
+      <c r="E76">
+        <v>3.23333</v>
+      </c>
+      <c r="F76">
+        <v>7.5933299999999999</v>
+      </c>
+      <c r="G76">
+        <v>0.26427</v>
+      </c>
+      <c r="H76">
+        <v>9.3272999999999993</v>
+      </c>
+      <c r="I76">
+        <v>6.9889799999999997</v>
+      </c>
+      <c r="J76">
+        <v>7.46</v>
+      </c>
+      <c r="K76">
+        <v>1.8673</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>150</v>
+      </c>
+      <c r="B77">
+        <v>0.06</v>
+      </c>
+      <c r="C77">
+        <v>3</v>
+      </c>
+      <c r="D77">
+        <v>7.6151999999999997</v>
+      </c>
+      <c r="E77">
+        <v>3.9466700000000001</v>
+      </c>
+      <c r="F77">
+        <v>7.5533299999999999</v>
+      </c>
+      <c r="G77">
+        <v>6.1870000000000001E-2</v>
+      </c>
+      <c r="H77">
+        <v>9.0853300000000008</v>
+      </c>
+      <c r="I77">
+        <v>6.9889799999999997</v>
+      </c>
+      <c r="J77">
+        <v>7.46</v>
+      </c>
+      <c r="K77">
+        <v>1.6253299999999999</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>150</v>
+      </c>
+      <c r="B78">
+        <v>0.06</v>
+      </c>
+      <c r="C78">
+        <v>4</v>
+      </c>
+      <c r="D78">
+        <v>7.6681299999999997</v>
+      </c>
+      <c r="E78">
+        <v>3.6133299999999999</v>
+      </c>
+      <c r="F78">
+        <v>7.58</v>
+      </c>
+      <c r="G78">
+        <v>8.813E-2</v>
+      </c>
+      <c r="H78">
+        <v>9.7156000000000002</v>
+      </c>
+      <c r="I78">
+        <v>6.9889799999999997</v>
+      </c>
+      <c r="J78">
+        <v>7.46</v>
+      </c>
+      <c r="K78">
+        <v>2.2555999999999998</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>150</v>
+      </c>
+      <c r="B79">
+        <v>0.06</v>
+      </c>
+      <c r="C79">
+        <v>5</v>
+      </c>
+      <c r="D79">
+        <v>7.7785299999999999</v>
+      </c>
+      <c r="E79">
+        <v>3.26667</v>
+      </c>
+      <c r="F79">
+        <v>7.6333299999999999</v>
+      </c>
+      <c r="G79">
+        <v>0.1452</v>
+      </c>
+      <c r="H79">
+        <v>10.269600000000001</v>
+      </c>
+      <c r="I79">
+        <v>6.9889799999999997</v>
+      </c>
+      <c r="J79">
+        <v>7.46</v>
+      </c>
+      <c r="K79">
+        <v>2.8096000000000001</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>150</v>
+      </c>
+      <c r="B80">
+        <v>0.06</v>
+      </c>
+      <c r="C80">
+        <v>6</v>
+      </c>
+      <c r="D80">
+        <v>7.8827999999999996</v>
+      </c>
+      <c r="E80">
+        <v>2.7533300000000001</v>
+      </c>
+      <c r="F80">
+        <v>7.6866700000000003</v>
+      </c>
+      <c r="G80">
+        <v>0.19613</v>
+      </c>
+      <c r="H80">
+        <v>10.63686</v>
+      </c>
+      <c r="I80">
+        <v>6.9889799999999997</v>
+      </c>
+      <c r="J80">
+        <v>7.46</v>
+      </c>
+      <c r="K80">
+        <v>3.17686</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>150</v>
+      </c>
+      <c r="B81">
+        <v>0.06</v>
+      </c>
+      <c r="C81">
+        <v>7</v>
+      </c>
+      <c r="D81">
+        <v>7.9726699999999999</v>
+      </c>
+      <c r="E81">
+        <v>2.8133300000000001</v>
+      </c>
+      <c r="F81">
+        <v>7.7266700000000004</v>
+      </c>
+      <c r="G81">
+        <v>0.246</v>
+      </c>
+      <c r="H81">
+        <v>10.958589999999999</v>
+      </c>
+      <c r="I81">
+        <v>6.9889799999999997</v>
+      </c>
+      <c r="J81">
+        <v>7.46</v>
+      </c>
+      <c r="K81">
+        <v>3.4985900000000001</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>150</v>
+      </c>
+      <c r="B82">
+        <v>0.08</v>
+      </c>
+      <c r="C82">
+        <v>3</v>
+      </c>
+      <c r="D82">
+        <v>7.6703999999999999</v>
+      </c>
+      <c r="E82">
+        <v>3.8333300000000001</v>
+      </c>
+      <c r="F82">
+        <v>7.6133300000000004</v>
+      </c>
+      <c r="G82">
+        <v>5.7070000000000003E-2</v>
+      </c>
+      <c r="H82">
+        <v>9.0720299999999998</v>
+      </c>
+      <c r="I82">
+        <v>6.9889799999999997</v>
+      </c>
+      <c r="J82">
+        <v>7.46</v>
+      </c>
+      <c r="K82">
+        <v>1.6120300000000001</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>150</v>
+      </c>
+      <c r="B83">
+        <v>0.08</v>
+      </c>
+      <c r="C83">
+        <v>4</v>
+      </c>
+      <c r="D83">
+        <v>7.6762699999999997</v>
+      </c>
+      <c r="E83">
+        <v>3.4533299999999998</v>
+      </c>
+      <c r="F83">
+        <v>7.6</v>
+      </c>
+      <c r="G83">
+        <v>7.6270000000000004E-2</v>
+      </c>
+      <c r="H83">
+        <v>9.6661099999999998</v>
+      </c>
+      <c r="I83">
+        <v>6.9889799999999997</v>
+      </c>
+      <c r="J83">
+        <v>7.46</v>
+      </c>
+      <c r="K83">
+        <v>2.2061099999999998</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>150</v>
+      </c>
+      <c r="B84">
+        <v>0.08</v>
+      </c>
+      <c r="C84">
+        <v>5</v>
+      </c>
+      <c r="D84">
+        <v>7.7925300000000002</v>
+      </c>
+      <c r="E84">
+        <v>3.32667</v>
+      </c>
+      <c r="F84">
+        <v>7.6133300000000004</v>
+      </c>
+      <c r="G84">
+        <v>0.1792</v>
+      </c>
+      <c r="H84">
+        <v>10.29373</v>
+      </c>
+      <c r="I84">
+        <v>6.9889799999999997</v>
+      </c>
+      <c r="J84">
+        <v>7.46</v>
+      </c>
+      <c r="K84">
+        <v>2.8337300000000001</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>150</v>
+      </c>
+      <c r="B85">
+        <v>0.08</v>
+      </c>
+      <c r="C85">
+        <v>6</v>
+      </c>
+      <c r="D85">
+        <v>7.8922699999999999</v>
+      </c>
+      <c r="E85">
+        <v>2.6333299999999999</v>
+      </c>
+      <c r="F85">
+        <v>7.78</v>
+      </c>
+      <c r="G85">
+        <v>0.11226999999999999</v>
+      </c>
+      <c r="H85">
+        <v>11.10488</v>
+      </c>
+      <c r="I85">
+        <v>6.9889799999999997</v>
+      </c>
+      <c r="J85">
+        <v>7.46</v>
+      </c>
+      <c r="K85">
+        <v>3.6448800000000001</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>150</v>
+      </c>
+      <c r="B86">
+        <v>0.08</v>
+      </c>
+      <c r="C86">
+        <v>7</v>
+      </c>
+      <c r="D86">
+        <v>8.0559999999999992</v>
+      </c>
+      <c r="E86">
+        <v>2.7066699999999999</v>
+      </c>
+      <c r="F86">
+        <v>7.8333300000000001</v>
+      </c>
+      <c r="G86">
+        <v>0.22267000000000001</v>
+      </c>
+      <c r="H86">
+        <v>11.672610000000001</v>
+      </c>
+      <c r="I86">
+        <v>6.9889799999999997</v>
+      </c>
+      <c r="J86">
+        <v>7.46</v>
+      </c>
+      <c r="K86">
+        <v>4.2126099999999997</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>150</v>
+      </c>
+      <c r="B87">
+        <v>0.1</v>
+      </c>
+      <c r="C87">
+        <v>3</v>
+      </c>
+      <c r="D87">
+        <v>7.6646700000000001</v>
+      </c>
+      <c r="E87">
+        <v>3.73333</v>
+      </c>
+      <c r="F87">
+        <v>7.6133300000000004</v>
+      </c>
+      <c r="G87">
+        <v>5.1330000000000001E-2</v>
+      </c>
+      <c r="H87">
+        <v>9.7870399999999993</v>
+      </c>
+      <c r="I87">
+        <v>6.9889799999999997</v>
+      </c>
+      <c r="J87">
+        <v>7.46</v>
+      </c>
+      <c r="K87">
+        <v>2.3270400000000002</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>150</v>
+      </c>
+      <c r="B88">
+        <v>0.1</v>
+      </c>
+      <c r="C88">
+        <v>4</v>
+      </c>
+      <c r="D88">
+        <v>7.6959999999999997</v>
+      </c>
+      <c r="E88">
+        <v>3.42</v>
+      </c>
+      <c r="F88">
+        <v>7.6066700000000003</v>
+      </c>
+      <c r="G88">
+        <v>8.9330000000000007E-2</v>
+      </c>
+      <c r="H88">
+        <v>10.92224</v>
+      </c>
+      <c r="I88">
+        <v>6.9889799999999997</v>
+      </c>
+      <c r="J88">
+        <v>7.46</v>
+      </c>
+      <c r="K88">
+        <v>3.46224</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>150</v>
+      </c>
+      <c r="B89">
+        <v>0.1</v>
+      </c>
+      <c r="C89">
+        <v>5</v>
+      </c>
+      <c r="D89">
+        <v>7.8606699999999998</v>
+      </c>
+      <c r="E89">
+        <v>3.1866699999999999</v>
+      </c>
+      <c r="F89">
+        <v>7.7266700000000004</v>
+      </c>
+      <c r="G89">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="H89">
+        <v>11.77727</v>
+      </c>
+      <c r="I89">
+        <v>6.9889799999999997</v>
+      </c>
+      <c r="J89">
+        <v>7.46</v>
+      </c>
+      <c r="K89">
+        <v>4.3172699999999997</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>150</v>
+      </c>
+      <c r="B90">
+        <v>0.1</v>
+      </c>
+      <c r="C90">
+        <v>6</v>
+      </c>
+      <c r="D90">
+        <v>7.9486699999999999</v>
+      </c>
+      <c r="E90">
+        <v>2.56</v>
+      </c>
+      <c r="F90">
+        <v>7.7066699999999999</v>
+      </c>
+      <c r="G90">
+        <v>0.24199999999999999</v>
+      </c>
+      <c r="H90">
+        <v>12.311389999999999</v>
+      </c>
+      <c r="I90">
+        <v>6.9889799999999997</v>
+      </c>
+      <c r="J90">
+        <v>7.46</v>
+      </c>
+      <c r="K90">
+        <v>4.8513900000000003</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>150</v>
+      </c>
+      <c r="B91">
+        <v>0.1</v>
+      </c>
+      <c r="C91">
+        <v>7</v>
+      </c>
+      <c r="D91">
+        <v>8.0986700000000003</v>
+      </c>
+      <c r="E91">
+        <v>2.64</v>
+      </c>
+      <c r="F91">
+        <v>7.86</v>
+      </c>
+      <c r="G91">
+        <v>0.23866999999999999</v>
+      </c>
+      <c r="H91">
+        <v>12.75079</v>
+      </c>
+      <c r="I91">
+        <v>6.9889799999999997</v>
+      </c>
+      <c r="J91">
+        <v>7.46</v>
+      </c>
+      <c r="K91">
+        <v>5.2907900000000003</v>
       </c>
     </row>
   </sheetData>
